--- a/Data/Excels/Synthetic/Resumes/Models test Experiment 2.xlsx
+++ b/Data/Excels/Synthetic/Resumes/Models test Experiment 2.xlsx
@@ -456,47 +456,47 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>ARAP-InRays Improvement (%)</t>
+          <t>HyperElasticOdgen-InRays Improvement (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>ARAP-InRays Final Vs Mov (%)</t>
+          <t>HyperElasticOdgen-InRays Final Vs Mov (%)</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ARAP-InRays Initial VS Mov (%)</t>
+          <t>HyperElasticOdgen-InRays Initial VS Mov (%)</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>ARAP-TwoPoints Improvement (%)</t>
+          <t>HyperElasticOdgen-TwoPoints Improvement (%)</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ARAP-TwoPoints Final Vs Mov (%)</t>
+          <t>HyperElasticOdgen-TwoPoints Final Vs Mov (%)</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ARAP-TwoPoints Initial VS Mov (%)</t>
+          <t>HyperElasticOdgen-TwoPoints Initial VS Mov (%)</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ARAP-FarPoints Improvement (%)</t>
+          <t>HyperElasticOdgen-FarPoints Improvement (%)</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>ARAP-FarPoints Final Vs Mov (%)</t>
+          <t>HyperElasticOdgen-FarPoints Final Vs Mov (%)</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>ARAP-FarPoints Initial VS Mov (%)</t>
+          <t>HyperElasticOdgen-FarPoints Initial VS Mov (%)</t>
         </is>
       </c>
     </row>
@@ -516,31 +516,31 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>-4.27</v>
+        <v>-39.94</v>
       </c>
       <c r="F2" t="n">
-        <v>78.95</v>
+        <v>105.96</v>
       </c>
       <c r="G2" t="n">
         <v>75.81999999999999</v>
       </c>
       <c r="H2" t="n">
-        <v>5.11</v>
+        <v>-64.65000000000001</v>
       </c>
       <c r="I2" t="n">
-        <v>79.06999999999999</v>
+        <v>137.2</v>
       </c>
       <c r="J2" t="n">
         <v>83.38</v>
       </c>
       <c r="K2" t="n">
-        <v>5.01</v>
+        <v>-33.77</v>
       </c>
       <c r="L2" t="n">
-        <v>69.42</v>
+        <v>113.94</v>
       </c>
       <c r="M2" t="n">
-        <v>73.05</v>
+        <v>85.14</v>
       </c>
     </row>
     <row r="3">
@@ -559,31 +559,31 @@
         <v>2.5</v>
       </c>
       <c r="E3" t="n">
-        <v>9.77</v>
+        <v>3.51</v>
       </c>
       <c r="F3" t="n">
-        <v>53.85</v>
+        <v>57.58</v>
       </c>
       <c r="G3" t="n">
         <v>59.6</v>
       </c>
       <c r="H3" t="n">
-        <v>10.25</v>
+        <v>12.37</v>
       </c>
       <c r="I3" t="n">
-        <v>57.77</v>
+        <v>56.41</v>
       </c>
       <c r="J3" t="n">
         <v>64.40000000000001</v>
       </c>
       <c r="K3" t="n">
-        <v>23.18</v>
+        <v>18.35</v>
       </c>
       <c r="L3" t="n">
-        <v>60.56</v>
+        <v>57.9</v>
       </c>
       <c r="M3" t="n">
-        <v>78.8</v>
+        <v>70.8</v>
       </c>
     </row>
     <row r="4">
@@ -602,31 +602,31 @@
         <v>2.5</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-16.6</v>
       </c>
       <c r="F4" t="n">
-        <v>69.84999999999999</v>
+        <v>81.45</v>
       </c>
       <c r="G4" t="n">
         <v>69.84</v>
       </c>
       <c r="H4" t="n">
-        <v>8.460000000000001</v>
+        <v>-5.16</v>
       </c>
       <c r="I4" t="n">
-        <v>71.15000000000001</v>
+        <v>81.73</v>
       </c>
       <c r="J4" t="n">
         <v>77.73</v>
       </c>
       <c r="K4" t="n">
-        <v>19.19</v>
+        <v>-12.43</v>
       </c>
       <c r="L4" t="n">
-        <v>56.51</v>
+        <v>88.45</v>
       </c>
       <c r="M4" t="n">
-        <v>69.84</v>
+        <v>78.73999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -645,31 +645,31 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>-3.89</v>
+        <v>-200.25</v>
       </c>
       <c r="F5" t="n">
-        <v>84.75</v>
+        <v>244.94</v>
       </c>
       <c r="G5" t="n">
         <v>81.59999999999999</v>
       </c>
       <c r="H5" t="n">
-        <v>5.94</v>
+        <v>-165.21</v>
       </c>
       <c r="I5" t="n">
-        <v>83.98999999999999</v>
+        <v>236.82</v>
       </c>
       <c r="J5" t="n">
         <v>89.33</v>
       </c>
       <c r="K5" t="n">
-        <v>-30.52</v>
+        <v>-197.19</v>
       </c>
       <c r="L5" t="n">
-        <v>91.58</v>
+        <v>265.31</v>
       </c>
       <c r="M5" t="n">
-        <v>70.2</v>
+        <v>89.26000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -688,31 +688,31 @@
         <v>10</v>
       </c>
       <c r="E6" t="n">
-        <v>5.96</v>
+        <v>8.18</v>
       </c>
       <c r="F6" t="n">
-        <v>46.78</v>
+        <v>45.68</v>
       </c>
       <c r="G6" t="n">
         <v>49.7</v>
       </c>
       <c r="H6" t="n">
-        <v>16.21</v>
+        <v>21.51</v>
       </c>
       <c r="I6" t="n">
-        <v>48.35</v>
+        <v>45.29</v>
       </c>
       <c r="J6" t="n">
         <v>57.7</v>
       </c>
       <c r="K6" t="n">
-        <v>21.94</v>
+        <v>25.59</v>
       </c>
       <c r="L6" t="n">
-        <v>47.95</v>
+        <v>43.01</v>
       </c>
       <c r="M6" t="n">
-        <v>61.4</v>
+        <v>57.8</v>
       </c>
     </row>
     <row r="7">
@@ -731,31 +731,31 @@
         <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.73</v>
+        <v>-158.84</v>
       </c>
       <c r="F7" t="n">
-        <v>76.31</v>
+        <v>196.1</v>
       </c>
       <c r="G7" t="n">
         <v>75.75</v>
       </c>
       <c r="H7" t="n">
-        <v>8.75</v>
+        <v>-167.44</v>
       </c>
       <c r="I7" t="n">
-        <v>76.59999999999999</v>
+        <v>224.52</v>
       </c>
       <c r="J7" t="n">
         <v>83.92</v>
       </c>
       <c r="K7" t="n">
-        <v>-85.76000000000001</v>
+        <v>-167.47</v>
       </c>
       <c r="L7" t="n">
-        <v>133.17</v>
+        <v>225.04</v>
       </c>
       <c r="M7" t="n">
-        <v>71.67</v>
+        <v>84.14</v>
       </c>
     </row>
     <row r="8">
@@ -774,31 +774,31 @@
         <v>2.5</v>
       </c>
       <c r="E8" t="n">
-        <v>8.17</v>
+        <v>0.87</v>
       </c>
       <c r="F8" t="n">
-        <v>50.24</v>
+        <v>54.23</v>
       </c>
       <c r="G8" t="n">
         <v>54.79</v>
       </c>
       <c r="H8" t="n">
-        <v>12.11</v>
+        <v>17.8</v>
       </c>
       <c r="I8" t="n">
-        <v>55.89</v>
+        <v>52.27</v>
       </c>
       <c r="J8" t="n">
         <v>63.7</v>
       </c>
       <c r="K8" t="n">
-        <v>30.27</v>
+        <v>26.8</v>
       </c>
       <c r="L8" t="n">
-        <v>52.02</v>
+        <v>48.66</v>
       </c>
       <c r="M8" t="n">
-        <v>74.59</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="9">
@@ -817,31 +817,31 @@
         <v>2.5</v>
       </c>
       <c r="E9" t="n">
-        <v>-2.4</v>
+        <v>-44.09</v>
       </c>
       <c r="F9" t="n">
-        <v>68.44</v>
+        <v>96.31</v>
       </c>
       <c r="G9" t="n">
         <v>66.79000000000001</v>
       </c>
       <c r="H9" t="n">
-        <v>10.85</v>
+        <v>-20.62</v>
       </c>
       <c r="I9" t="n">
-        <v>67.98999999999999</v>
+        <v>91.98</v>
       </c>
       <c r="J9" t="n">
         <v>76.2</v>
       </c>
       <c r="K9" t="n">
-        <v>18.4</v>
+        <v>-70.62</v>
       </c>
       <c r="L9" t="n">
-        <v>57.4</v>
+        <v>132.49</v>
       </c>
       <c r="M9" t="n">
-        <v>70.25</v>
+        <v>77.73999999999999</v>
       </c>
     </row>
     <row r="10">
@@ -860,31 +860,31 @@
         <v>10</v>
       </c>
       <c r="E10" t="n">
-        <v>51.01</v>
+        <v>6.62</v>
       </c>
       <c r="F10" t="n">
-        <v>20.95</v>
+        <v>39.94</v>
       </c>
       <c r="G10" t="n">
         <v>42.78</v>
       </c>
       <c r="H10" t="n">
-        <v>46.78</v>
+        <v>29.63</v>
       </c>
       <c r="I10" t="n">
-        <v>29.01</v>
+        <v>38.36</v>
       </c>
       <c r="J10" t="n">
         <v>54.5</v>
       </c>
       <c r="K10" t="n">
-        <v>42.51</v>
+        <v>33.23</v>
       </c>
       <c r="L10" t="n">
-        <v>34.33</v>
+        <v>36.56</v>
       </c>
       <c r="M10" t="n">
-        <v>59.66</v>
+        <v>54.78</v>
       </c>
     </row>
     <row r="11">
@@ -903,31 +903,31 @@
         <v>10</v>
       </c>
       <c r="E11" t="n">
-        <v>-5.59</v>
+        <v>-223.04</v>
       </c>
       <c r="F11" t="n">
-        <v>67.11</v>
+        <v>205.32</v>
       </c>
       <c r="G11" t="n">
         <v>63.55</v>
       </c>
       <c r="H11" t="n">
-        <v>10.2</v>
+        <v>-203.75</v>
       </c>
       <c r="I11" t="n">
-        <v>67.04000000000001</v>
+        <v>226.77</v>
       </c>
       <c r="J11" t="n">
         <v>74.65000000000001</v>
       </c>
       <c r="K11" t="n">
-        <v>-1184.61</v>
+        <v>-183.3</v>
       </c>
       <c r="L11" t="n">
-        <v>837.49</v>
+        <v>212.21</v>
       </c>
       <c r="M11" t="n">
-        <v>65.19</v>
+        <v>74.91</v>
       </c>
     </row>
     <row r="12">
@@ -946,31 +946,31 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8</v>
+        <v>0.25</v>
       </c>
       <c r="F12" t="n">
-        <v>245.12</v>
+        <v>246.47</v>
       </c>
       <c r="G12" t="n">
         <v>247</v>
       </c>
       <c r="H12" t="n">
-        <v>0.21</v>
+        <v>0.08</v>
       </c>
       <c r="I12" t="n">
-        <v>246.23</v>
+        <v>246.53</v>
       </c>
       <c r="J12" t="n">
         <v>246.5</v>
       </c>
       <c r="K12" t="n">
-        <v>7.81</v>
+        <v>4.71</v>
       </c>
       <c r="L12" t="n">
-        <v>199</v>
+        <v>247.63</v>
       </c>
       <c r="M12" t="n">
-        <v>215.75</v>
+        <v>259.75</v>
       </c>
     </row>
     <row r="13">
@@ -989,31 +989,31 @@
         <v>2.5</v>
       </c>
       <c r="E13" t="n">
-        <v>1.61</v>
+        <v>1.48</v>
       </c>
       <c r="F13" t="n">
-        <v>351.04</v>
+        <v>351.5</v>
       </c>
       <c r="G13" t="n">
         <v>356.8</v>
       </c>
       <c r="H13" t="n">
-        <v>0.32</v>
+        <v>0.24</v>
       </c>
       <c r="I13" t="n">
-        <v>350.86</v>
+        <v>351.14</v>
       </c>
       <c r="J13" t="n">
         <v>352</v>
       </c>
       <c r="K13" t="n">
-        <v>9</v>
+        <v>5.6</v>
       </c>
       <c r="L13" t="n">
-        <v>282.49</v>
+        <v>352.06</v>
       </c>
       <c r="M13" t="n">
-        <v>310.4</v>
+        <v>372.8</v>
       </c>
     </row>
     <row r="14">
@@ -1032,31 +1032,31 @@
         <v>2.5</v>
       </c>
       <c r="E14" t="n">
-        <v>0.52</v>
+        <v>0.09</v>
       </c>
       <c r="F14" t="n">
-        <v>216.07</v>
+        <v>217.02</v>
       </c>
       <c r="G14" t="n">
         <v>217.48</v>
       </c>
       <c r="H14" t="n">
-        <v>0.49</v>
+        <v>0.61</v>
       </c>
       <c r="I14" t="n">
-        <v>217.59</v>
+        <v>217.33</v>
       </c>
       <c r="J14" t="n">
         <v>218.76</v>
       </c>
       <c r="K14" t="n">
-        <v>7.05</v>
+        <v>4.1</v>
       </c>
       <c r="L14" t="n">
-        <v>173.55</v>
+        <v>217.57</v>
       </c>
       <c r="M14" t="n">
-        <v>186.78</v>
+        <v>227.08</v>
       </c>
     </row>
     <row r="15">
@@ -1075,31 +1075,31 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.89</v>
+        <v>-10.01</v>
       </c>
       <c r="F15" t="n">
-        <v>194.95</v>
+        <v>212.58</v>
       </c>
       <c r="G15" t="n">
         <v>193.24</v>
       </c>
       <c r="H15" t="n">
-        <v>0.99</v>
+        <v>-3.96</v>
       </c>
       <c r="I15" t="n">
-        <v>195.11</v>
+        <v>204.86</v>
       </c>
       <c r="J15" t="n">
         <v>197.06</v>
       </c>
       <c r="K15" t="n">
-        <v>5.91</v>
+        <v>-3.01</v>
       </c>
       <c r="L15" t="n">
-        <v>134.88</v>
+        <v>204.31</v>
       </c>
       <c r="M15" t="n">
-        <v>143.33</v>
+        <v>198.34</v>
       </c>
     </row>
     <row r="16">
@@ -1118,31 +1118,31 @@
         <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>0.84</v>
+        <v>0.52</v>
       </c>
       <c r="F16" t="n">
-        <v>140.93</v>
+        <v>141.39</v>
       </c>
       <c r="G16" t="n">
         <v>142.1</v>
       </c>
       <c r="H16" t="n">
-        <v>2.3</v>
+        <v>2.22</v>
       </c>
       <c r="I16" t="n">
-        <v>141.57</v>
+        <v>141.69</v>
       </c>
       <c r="J16" t="n">
         <v>144.9</v>
       </c>
       <c r="K16" t="n">
-        <v>6.54</v>
+        <v>4.53</v>
       </c>
       <c r="L16" t="n">
-        <v>122.1</v>
+        <v>141.45</v>
       </c>
       <c r="M16" t="n">
-        <v>130.6</v>
+        <v>148.2</v>
       </c>
     </row>
     <row r="17">
@@ -1161,31 +1161,31 @@
         <v>10</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.83</v>
+        <v>-26.57</v>
       </c>
       <c r="F17" t="n">
-        <v>174.75</v>
+        <v>219.35</v>
       </c>
       <c r="G17" t="n">
         <v>173.29</v>
       </c>
       <c r="H17" t="n">
-        <v>1.83</v>
+        <v>-50.07</v>
       </c>
       <c r="I17" t="n">
-        <v>174.76</v>
+        <v>267.14</v>
       </c>
       <c r="J17" t="n">
         <v>177.99</v>
       </c>
       <c r="K17" t="n">
-        <v>14.35</v>
+        <v>-19.64</v>
       </c>
       <c r="L17" t="n">
-        <v>118.74</v>
+        <v>213.1</v>
       </c>
       <c r="M17" t="n">
-        <v>138.65</v>
+        <v>178.14</v>
       </c>
     </row>
     <row r="18">
@@ -1204,31 +1204,31 @@
         <v>2.5</v>
       </c>
       <c r="E18" t="n">
-        <v>5.7</v>
+        <v>0.72</v>
       </c>
       <c r="F18" t="n">
-        <v>111.67</v>
+        <v>117.57</v>
       </c>
       <c r="G18" t="n">
         <v>118.42</v>
       </c>
       <c r="H18" t="n">
-        <v>9.470000000000001</v>
+        <v>5.57</v>
       </c>
       <c r="I18" t="n">
-        <v>113.51</v>
+        <v>118.41</v>
       </c>
       <c r="J18" t="n">
         <v>125.39</v>
       </c>
       <c r="K18" t="n">
-        <v>17.47</v>
+        <v>9.02</v>
       </c>
       <c r="L18" t="n">
-        <v>94.98999999999999</v>
+        <v>114.84</v>
       </c>
       <c r="M18" t="n">
-        <v>115.09</v>
+        <v>126.23</v>
       </c>
     </row>
     <row r="19">
@@ -1247,31 +1247,31 @@
         <v>2.5</v>
       </c>
       <c r="E19" t="n">
-        <v>4.42</v>
+        <v>0.84</v>
       </c>
       <c r="F19" t="n">
-        <v>128.68</v>
+        <v>133.51</v>
       </c>
       <c r="G19" t="n">
         <v>134.61</v>
       </c>
       <c r="H19" t="n">
-        <v>6.38</v>
+        <v>3.68</v>
       </c>
       <c r="I19" t="n">
-        <v>130.68</v>
+        <v>134.44</v>
       </c>
       <c r="J19" t="n">
         <v>139.55</v>
       </c>
       <c r="K19" t="n">
-        <v>16.15</v>
+        <v>4.36</v>
       </c>
       <c r="L19" t="n">
-        <v>100.23</v>
+        <v>134.17</v>
       </c>
       <c r="M19" t="n">
-        <v>119.53</v>
+        <v>140.26</v>
       </c>
     </row>
     <row r="20">
@@ -1290,31 +1290,31 @@
         <v>10</v>
       </c>
       <c r="E20" t="n">
-        <v>1.96</v>
+        <v>2.08</v>
       </c>
       <c r="F20" t="n">
-        <v>106.64</v>
+        <v>106.51</v>
       </c>
       <c r="G20" t="n">
         <v>108.76</v>
       </c>
       <c r="H20" t="n">
-        <v>8.59</v>
+        <v>8.609999999999999</v>
       </c>
       <c r="I20" t="n">
-        <v>106.44</v>
+        <v>106.42</v>
       </c>
       <c r="J20" t="n">
         <v>116.45</v>
       </c>
       <c r="K20" t="n">
-        <v>19.21</v>
+        <v>7.94</v>
       </c>
       <c r="L20" t="n">
-        <v>86.91</v>
+        <v>107.52</v>
       </c>
       <c r="M20" t="n">
-        <v>107.57</v>
+        <v>116.78</v>
       </c>
     </row>
     <row r="21">
@@ -1333,31 +1333,31 @@
         <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>2.91</v>
+        <v>-0.13</v>
       </c>
       <c r="F21" t="n">
-        <v>108.7</v>
+        <v>112.11</v>
       </c>
       <c r="G21" t="n">
         <v>111.95</v>
       </c>
       <c r="H21" t="n">
-        <v>10.5</v>
+        <v>-1.43</v>
       </c>
       <c r="I21" t="n">
-        <v>107.89</v>
+        <v>122.27</v>
       </c>
       <c r="J21" t="n">
         <v>120.54</v>
       </c>
       <c r="K21" t="n">
-        <v>19.47</v>
+        <v>-1.97</v>
       </c>
       <c r="L21" t="n">
-        <v>85.95999999999999</v>
+        <v>122.76</v>
       </c>
       <c r="M21" t="n">
-        <v>106.75</v>
+        <v>120.39</v>
       </c>
     </row>
     <row r="22">
@@ -1376,31 +1376,31 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>1.02</v>
+        <v>0.88</v>
       </c>
       <c r="F22" t="n">
-        <v>475.83</v>
+        <v>476.51</v>
       </c>
       <c r="G22" t="n">
         <v>480.68</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="I22" t="n">
-        <v>476.3</v>
+        <v>476.28</v>
       </c>
       <c r="J22" t="n">
         <v>476.09</v>
       </c>
       <c r="K22" t="n">
-        <v>5.14</v>
+        <v>3.57</v>
       </c>
       <c r="L22" t="n">
-        <v>403.11</v>
+        <v>477.69</v>
       </c>
       <c r="M22" t="n">
-        <v>424.88</v>
+        <v>495.17</v>
       </c>
     </row>
     <row r="23">
@@ -1419,31 +1419,31 @@
         <v>2.5</v>
       </c>
       <c r="E23" t="n">
-        <v>1.55</v>
+        <v>1.69</v>
       </c>
       <c r="F23" t="n">
-        <v>667.91</v>
+        <v>666.95</v>
       </c>
       <c r="G23" t="n">
         <v>678.4</v>
       </c>
       <c r="H23" t="n">
-        <v>0.11</v>
+        <v>0.03</v>
       </c>
       <c r="I23" t="n">
-        <v>668.15</v>
+        <v>668.71</v>
       </c>
       <c r="J23" t="n">
         <v>668.8</v>
       </c>
       <c r="K23" t="n">
-        <v>6.49</v>
+        <v>5.56</v>
       </c>
       <c r="L23" t="n">
-        <v>580.89</v>
+        <v>667.78</v>
       </c>
       <c r="M23" t="n">
-        <v>621.2</v>
+        <v>707.2</v>
       </c>
     </row>
     <row r="24">
@@ -1462,31 +1462,31 @@
         <v>2.5</v>
       </c>
       <c r="E24" t="n">
-        <v>1.01</v>
+        <v>0.9</v>
       </c>
       <c r="F24" t="n">
-        <v>397.26</v>
+        <v>397.69</v>
       </c>
       <c r="G24" t="n">
         <v>401.04</v>
       </c>
       <c r="H24" t="n">
-        <v>0.18</v>
+        <v>0.04</v>
       </c>
       <c r="I24" t="n">
-        <v>397.59</v>
+        <v>398.12</v>
       </c>
       <c r="J24" t="n">
         <v>398.12</v>
       </c>
       <c r="K24" t="n">
-        <v>5.13</v>
+        <v>4.73</v>
       </c>
       <c r="L24" t="n">
-        <v>342.34</v>
+        <v>398.15</v>
       </c>
       <c r="M24" t="n">
-        <v>360.62</v>
+        <v>417.71</v>
       </c>
     </row>
     <row r="25">
@@ -1505,31 +1505,31 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.96</v>
+        <v>-0.87</v>
       </c>
       <c r="F25" t="n">
-        <v>251.58</v>
+        <v>251.35</v>
       </c>
       <c r="G25" t="n">
         <v>249.19</v>
       </c>
       <c r="H25" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I25" t="n">
-        <v>251.3</v>
+        <v>251.31</v>
       </c>
       <c r="J25" t="n">
         <v>251.49</v>
       </c>
       <c r="K25" t="n">
-        <v>3.32</v>
+        <v>1.04</v>
       </c>
       <c r="L25" t="n">
-        <v>201.36</v>
+        <v>251.6</v>
       </c>
       <c r="M25" t="n">
-        <v>208.27</v>
+        <v>254.23</v>
       </c>
     </row>
     <row r="26">
@@ -1548,31 +1548,31 @@
         <v>10</v>
       </c>
       <c r="E26" t="n">
-        <v>1.63</v>
+        <v>1.34</v>
       </c>
       <c r="F26" t="n">
-        <v>197.41</v>
+        <v>197.99</v>
       </c>
       <c r="G26" t="n">
         <v>200.7</v>
       </c>
       <c r="H26" t="n">
-        <v>1.64</v>
+        <v>1.34</v>
       </c>
       <c r="I26" t="n">
-        <v>205.89</v>
+        <v>198.87</v>
       </c>
       <c r="J26" t="n">
-        <v>209.3</v>
+        <v>201.6</v>
       </c>
       <c r="K26" t="n">
-        <v>5.42</v>
+        <v>5.53</v>
       </c>
       <c r="L26" t="n">
-        <v>180.48</v>
+        <v>199.27</v>
       </c>
       <c r="M26" t="n">
-        <v>190.8</v>
+        <v>210.9</v>
       </c>
     </row>
     <row r="27">
@@ -1591,31 +1591,31 @@
         <v>10</v>
       </c>
       <c r="E27" t="n">
-        <v>0.55</v>
+        <v>-0.41</v>
       </c>
       <c r="F27" t="n">
-        <v>249.99</v>
+        <v>252.4</v>
       </c>
       <c r="G27" t="n">
         <v>251.35</v>
       </c>
       <c r="H27" t="n">
-        <v>0.61</v>
+        <v>0.52</v>
       </c>
       <c r="I27" t="n">
-        <v>252.76</v>
+        <v>253</v>
       </c>
       <c r="J27" t="n">
         <v>254.29</v>
       </c>
       <c r="K27" t="n">
-        <v>8.029999999999999</v>
+        <v>1.34</v>
       </c>
       <c r="L27" t="n">
-        <v>194.45</v>
+        <v>252.54</v>
       </c>
       <c r="M27" t="n">
-        <v>211.43</v>
+        <v>255.99</v>
       </c>
     </row>
     <row r="28">
@@ -1634,31 +1634,31 @@
         <v>2.5</v>
       </c>
       <c r="E28" t="n">
-        <v>2.17</v>
+        <v>1.61</v>
       </c>
       <c r="F28" t="n">
-        <v>146.42</v>
+        <v>147.26</v>
       </c>
       <c r="G28" t="n">
         <v>149.66</v>
       </c>
       <c r="H28" t="n">
-        <v>6.31</v>
+        <v>6.36</v>
       </c>
       <c r="I28" t="n">
-        <v>146.89</v>
+        <v>146.8</v>
       </c>
       <c r="J28" t="n">
         <v>156.75</v>
       </c>
       <c r="K28" t="n">
-        <v>7.34</v>
+        <v>7.56</v>
       </c>
       <c r="L28" t="n">
-        <v>141.09</v>
+        <v>145.67</v>
       </c>
       <c r="M28" t="n">
-        <v>152.23</v>
+        <v>157.55</v>
       </c>
     </row>
     <row r="29">
@@ -1677,31 +1677,31 @@
         <v>2.5</v>
       </c>
       <c r="E29" t="n">
-        <v>3.67</v>
+        <v>1.42</v>
       </c>
       <c r="F29" t="n">
-        <v>134.38</v>
+        <v>137.52</v>
       </c>
       <c r="G29" t="n">
         <v>139.49</v>
       </c>
       <c r="H29" t="n">
-        <v>7.43</v>
+        <v>5.76</v>
       </c>
       <c r="I29" t="n">
-        <v>137.17</v>
+        <v>139.64</v>
       </c>
       <c r="J29" t="n">
         <v>148.17</v>
       </c>
       <c r="K29" t="n">
-        <v>14.83</v>
+        <v>8.17</v>
       </c>
       <c r="L29" t="n">
-        <v>120.96</v>
+        <v>136.81</v>
       </c>
       <c r="M29" t="n">
-        <v>142.01</v>
+        <v>148.97</v>
       </c>
     </row>
     <row r="30">
@@ -1720,31 +1720,31 @@
         <v>10</v>
       </c>
       <c r="E30" t="n">
-        <v>2.86</v>
+        <v>-0.24</v>
       </c>
       <c r="F30" t="n">
-        <v>122.16</v>
+        <v>126.06</v>
       </c>
       <c r="G30" t="n">
         <v>125.77</v>
       </c>
       <c r="H30" t="n">
-        <v>9.529999999999999</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="I30" t="n">
-        <v>120.95</v>
+        <v>122.25</v>
       </c>
       <c r="J30" t="n">
         <v>133.68</v>
       </c>
       <c r="K30" t="n">
-        <v>4.47</v>
+        <v>7.04</v>
       </c>
       <c r="L30" t="n">
-        <v>119.63</v>
+        <v>124.64</v>
       </c>
       <c r="M30" t="n">
-        <v>125.24</v>
+        <v>134.08</v>
       </c>
     </row>
     <row r="31">
@@ -1763,31 +1763,31 @@
         <v>10</v>
       </c>
       <c r="E31" t="n">
-        <v>0.88</v>
+        <v>-0.04</v>
       </c>
       <c r="F31" t="n">
-        <v>128.29</v>
+        <v>129.49</v>
       </c>
       <c r="G31" t="n">
         <v>129.43</v>
       </c>
       <c r="H31" t="n">
-        <v>8.08</v>
+        <v>6.79</v>
       </c>
       <c r="I31" t="n">
-        <v>126.82</v>
+        <v>128.59</v>
       </c>
       <c r="J31" t="n">
         <v>137.96</v>
       </c>
       <c r="K31" t="n">
-        <v>12.44</v>
+        <v>6.21</v>
       </c>
       <c r="L31" t="n">
-        <v>113.4</v>
+        <v>128.67</v>
       </c>
       <c r="M31" t="n">
-        <v>129.51</v>
+        <v>137.2</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Excels/Synthetic/Resumes/Models test Experiment 2.xlsx
+++ b/Data/Excels/Synthetic/Resumes/Models test Experiment 2.xlsx
@@ -456,47 +456,47 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>HyperElasticOdgen-InRays Improvement (%)</t>
+          <t>ARAP_NoGlobal-InRays Improvement (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>HyperElasticOdgen-InRays Final Vs Mov (%)</t>
+          <t>ARAP_NoGlobal-InRays Final Vs Mov (%)</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>HyperElasticOdgen-InRays Initial VS Mov (%)</t>
+          <t>ARAP_NoGlobal-InRays Initial VS Mov (%)</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>HyperElasticOdgen-TwoPoints Improvement (%)</t>
+          <t>ARAP_NoGlobal-TwoPoints Improvement (%)</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>HyperElasticOdgen-TwoPoints Final Vs Mov (%)</t>
+          <t>ARAP_NoGlobal-TwoPoints Final Vs Mov (%)</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>HyperElasticOdgen-TwoPoints Initial VS Mov (%)</t>
+          <t>ARAP_NoGlobal-TwoPoints Initial VS Mov (%)</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>HyperElasticOdgen-FarPoints Improvement (%)</t>
+          <t>ARAP_NoGlobal-FarPoints Improvement (%)</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>HyperElasticOdgen-FarPoints Final Vs Mov (%)</t>
+          <t>ARAP_NoGlobal-FarPoints Final Vs Mov (%)</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>HyperElasticOdgen-FarPoints Initial VS Mov (%)</t>
+          <t>ARAP_NoGlobal-FarPoints Initial VS Mov (%)</t>
         </is>
       </c>
     </row>
@@ -516,28 +516,28 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>-39.94</v>
+        <v>-4.61</v>
       </c>
       <c r="F2" t="n">
-        <v>105.96</v>
+        <v>79.20999999999999</v>
       </c>
       <c r="G2" t="n">
         <v>75.81999999999999</v>
       </c>
       <c r="H2" t="n">
-        <v>-64.65000000000001</v>
+        <v>4.95</v>
       </c>
       <c r="I2" t="n">
-        <v>137.2</v>
+        <v>79.2</v>
       </c>
       <c r="J2" t="n">
         <v>83.38</v>
       </c>
       <c r="K2" t="n">
-        <v>-33.77</v>
+        <v>-6.63</v>
       </c>
       <c r="L2" t="n">
-        <v>113.94</v>
+        <v>90.83</v>
       </c>
       <c r="M2" t="n">
         <v>85.14</v>
@@ -559,28 +559,28 @@
         <v>2.5</v>
       </c>
       <c r="E3" t="n">
-        <v>3.51</v>
+        <v>4.06</v>
       </c>
       <c r="F3" t="n">
-        <v>57.58</v>
+        <v>57.25</v>
       </c>
       <c r="G3" t="n">
         <v>59.6</v>
       </c>
       <c r="H3" t="n">
-        <v>12.37</v>
+        <v>11.12</v>
       </c>
       <c r="I3" t="n">
-        <v>56.41</v>
+        <v>57.21</v>
       </c>
       <c r="J3" t="n">
         <v>64.40000000000001</v>
       </c>
       <c r="K3" t="n">
-        <v>18.35</v>
+        <v>19.14</v>
       </c>
       <c r="L3" t="n">
-        <v>57.9</v>
+        <v>57.34</v>
       </c>
       <c r="M3" t="n">
         <v>70.8</v>
@@ -602,28 +602,28 @@
         <v>2.5</v>
       </c>
       <c r="E4" t="n">
-        <v>-16.6</v>
+        <v>-2.3</v>
       </c>
       <c r="F4" t="n">
-        <v>81.45</v>
+        <v>71.45999999999999</v>
       </c>
       <c r="G4" t="n">
         <v>69.84</v>
       </c>
       <c r="H4" t="n">
-        <v>-5.16</v>
+        <v>7.87</v>
       </c>
       <c r="I4" t="n">
-        <v>81.73</v>
+        <v>71.61</v>
       </c>
       <c r="J4" t="n">
         <v>77.73</v>
       </c>
       <c r="K4" t="n">
-        <v>-12.43</v>
+        <v>8.66</v>
       </c>
       <c r="L4" t="n">
-        <v>88.45</v>
+        <v>71.86</v>
       </c>
       <c r="M4" t="n">
         <v>78.73999999999999</v>
@@ -645,28 +645,28 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>-200.25</v>
+        <v>-8.359999999999999</v>
       </c>
       <c r="F5" t="n">
-        <v>244.94</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="G5" t="n">
         <v>81.59999999999999</v>
       </c>
       <c r="H5" t="n">
-        <v>-165.21</v>
+        <v>1.79</v>
       </c>
       <c r="I5" t="n">
-        <v>236.82</v>
+        <v>87.7</v>
       </c>
       <c r="J5" t="n">
         <v>89.33</v>
       </c>
       <c r="K5" t="n">
-        <v>-197.19</v>
+        <v>-21.88</v>
       </c>
       <c r="L5" t="n">
-        <v>265.31</v>
+        <v>108.81</v>
       </c>
       <c r="M5" t="n">
         <v>89.26000000000001</v>
@@ -688,28 +688,28 @@
         <v>10</v>
       </c>
       <c r="E6" t="n">
-        <v>8.18</v>
+        <v>0.85</v>
       </c>
       <c r="F6" t="n">
-        <v>45.68</v>
+        <v>49.32</v>
       </c>
       <c r="G6" t="n">
         <v>49.7</v>
       </c>
       <c r="H6" t="n">
-        <v>21.51</v>
+        <v>14.74</v>
       </c>
       <c r="I6" t="n">
-        <v>45.29</v>
+        <v>49.19</v>
       </c>
       <c r="J6" t="n">
         <v>57.7</v>
       </c>
       <c r="K6" t="n">
-        <v>25.59</v>
+        <v>18</v>
       </c>
       <c r="L6" t="n">
-        <v>43.01</v>
+        <v>47.39</v>
       </c>
       <c r="M6" t="n">
         <v>57.8</v>
@@ -731,28 +731,28 @@
         <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>-158.84</v>
+        <v>-7.7</v>
       </c>
       <c r="F7" t="n">
-        <v>196.1</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="G7" t="n">
         <v>75.75</v>
       </c>
       <c r="H7" t="n">
-        <v>-167.44</v>
+        <v>1.62</v>
       </c>
       <c r="I7" t="n">
-        <v>224.52</v>
+        <v>82.59</v>
       </c>
       <c r="J7" t="n">
         <v>83.92</v>
       </c>
       <c r="K7" t="n">
-        <v>-167.47</v>
+        <v>-116.67</v>
       </c>
       <c r="L7" t="n">
-        <v>225.04</v>
+        <v>182.3</v>
       </c>
       <c r="M7" t="n">
         <v>84.14</v>
@@ -774,28 +774,28 @@
         <v>2.5</v>
       </c>
       <c r="E8" t="n">
-        <v>0.87</v>
+        <v>4.74</v>
       </c>
       <c r="F8" t="n">
-        <v>54.23</v>
+        <v>52.12</v>
       </c>
       <c r="G8" t="n">
         <v>54.79</v>
       </c>
       <c r="H8" t="n">
-        <v>17.8</v>
+        <v>19.35</v>
       </c>
       <c r="I8" t="n">
-        <v>52.27</v>
+        <v>51.28</v>
       </c>
       <c r="J8" t="n">
         <v>63.7</v>
       </c>
       <c r="K8" t="n">
-        <v>26.8</v>
+        <v>20.87</v>
       </c>
       <c r="L8" t="n">
-        <v>48.66</v>
+        <v>52.6</v>
       </c>
       <c r="M8" t="n">
         <v>66.67</v>
@@ -817,28 +817,28 @@
         <v>2.5</v>
       </c>
       <c r="E9" t="n">
-        <v>-44.09</v>
+        <v>-4.57</v>
       </c>
       <c r="F9" t="n">
-        <v>96.31</v>
+        <v>69.89</v>
       </c>
       <c r="G9" t="n">
         <v>66.79000000000001</v>
       </c>
       <c r="H9" t="n">
-        <v>-20.62</v>
+        <v>9.56</v>
       </c>
       <c r="I9" t="n">
-        <v>91.98</v>
+        <v>68.97</v>
       </c>
       <c r="J9" t="n">
         <v>76.2</v>
       </c>
       <c r="K9" t="n">
-        <v>-70.62</v>
+        <v>7.16</v>
       </c>
       <c r="L9" t="n">
-        <v>132.49</v>
+        <v>72.09</v>
       </c>
       <c r="M9" t="n">
         <v>77.73999999999999</v>
@@ -860,28 +860,28 @@
         <v>10</v>
       </c>
       <c r="E10" t="n">
-        <v>6.62</v>
+        <v>9.15</v>
       </c>
       <c r="F10" t="n">
-        <v>39.94</v>
+        <v>38.85</v>
       </c>
       <c r="G10" t="n">
         <v>42.78</v>
       </c>
       <c r="H10" t="n">
-        <v>29.63</v>
+        <v>25.73</v>
       </c>
       <c r="I10" t="n">
-        <v>38.36</v>
+        <v>40.49</v>
       </c>
       <c r="J10" t="n">
         <v>54.5</v>
       </c>
       <c r="K10" t="n">
-        <v>33.23</v>
+        <v>25.84</v>
       </c>
       <c r="L10" t="n">
-        <v>36.56</v>
+        <v>40.61</v>
       </c>
       <c r="M10" t="n">
         <v>54.78</v>
@@ -903,28 +903,28 @@
         <v>10</v>
       </c>
       <c r="E11" t="n">
-        <v>-223.04</v>
+        <v>-16.02</v>
       </c>
       <c r="F11" t="n">
-        <v>205.32</v>
+        <v>73.73999999999999</v>
       </c>
       <c r="G11" t="n">
         <v>63.55</v>
       </c>
       <c r="H11" t="n">
-        <v>-203.75</v>
+        <v>-2.31</v>
       </c>
       <c r="I11" t="n">
-        <v>226.77</v>
+        <v>76.39</v>
       </c>
       <c r="J11" t="n">
         <v>74.65000000000001</v>
       </c>
       <c r="K11" t="n">
-        <v>-183.3</v>
+        <v>-707.5700000000001</v>
       </c>
       <c r="L11" t="n">
-        <v>212.21</v>
+        <v>604.9299999999999</v>
       </c>
       <c r="M11" t="n">
         <v>74.91</v>
@@ -946,28 +946,28 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0.25</v>
+        <v>0.89</v>
       </c>
       <c r="F12" t="n">
-        <v>246.47</v>
+        <v>244.89</v>
       </c>
       <c r="G12" t="n">
         <v>247</v>
       </c>
       <c r="H12" t="n">
-        <v>0.08</v>
+        <v>0.19</v>
       </c>
       <c r="I12" t="n">
-        <v>246.53</v>
+        <v>246.26</v>
       </c>
       <c r="J12" t="n">
         <v>246.5</v>
       </c>
       <c r="K12" t="n">
-        <v>4.71</v>
+        <v>5.79</v>
       </c>
       <c r="L12" t="n">
-        <v>247.63</v>
+        <v>244.84</v>
       </c>
       <c r="M12" t="n">
         <v>259.75</v>
@@ -989,28 +989,28 @@
         <v>2.5</v>
       </c>
       <c r="E13" t="n">
-        <v>1.48</v>
+        <v>-0.12</v>
       </c>
       <c r="F13" t="n">
-        <v>351.5</v>
+        <v>357.18</v>
       </c>
       <c r="G13" t="n">
         <v>356.8</v>
       </c>
       <c r="H13" t="n">
-        <v>0.24</v>
+        <v>0.33</v>
       </c>
       <c r="I13" t="n">
-        <v>351.14</v>
+        <v>350.81</v>
       </c>
       <c r="J13" t="n">
         <v>352</v>
       </c>
       <c r="K13" t="n">
-        <v>5.6</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="L13" t="n">
-        <v>352.06</v>
+        <v>341.99</v>
       </c>
       <c r="M13" t="n">
         <v>372.8</v>
@@ -1032,28 +1032,28 @@
         <v>2.5</v>
       </c>
       <c r="E14" t="n">
-        <v>0.09</v>
+        <v>-1.95</v>
       </c>
       <c r="F14" t="n">
-        <v>217.02</v>
+        <v>221.44</v>
       </c>
       <c r="G14" t="n">
         <v>217.48</v>
       </c>
       <c r="H14" t="n">
-        <v>0.61</v>
+        <v>0.66</v>
       </c>
       <c r="I14" t="n">
-        <v>217.33</v>
+        <v>217.23</v>
       </c>
       <c r="J14" t="n">
         <v>218.76</v>
       </c>
       <c r="K14" t="n">
-        <v>4.1</v>
+        <v>4.81</v>
       </c>
       <c r="L14" t="n">
-        <v>217.57</v>
+        <v>215.96</v>
       </c>
       <c r="M14" t="n">
         <v>227.08</v>
@@ -1075,28 +1075,28 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>-10.01</v>
+        <v>-1.78</v>
       </c>
       <c r="F15" t="n">
-        <v>212.58</v>
+        <v>196.69</v>
       </c>
       <c r="G15" t="n">
         <v>193.24</v>
       </c>
       <c r="H15" t="n">
-        <v>-3.96</v>
+        <v>0.1</v>
       </c>
       <c r="I15" t="n">
-        <v>204.86</v>
+        <v>196.85</v>
       </c>
       <c r="J15" t="n">
         <v>197.06</v>
       </c>
       <c r="K15" t="n">
-        <v>-3.01</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="L15" t="n">
-        <v>204.31</v>
+        <v>182.06</v>
       </c>
       <c r="M15" t="n">
         <v>198.34</v>
@@ -1118,28 +1118,28 @@
         <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>0.52</v>
+        <v>0.77</v>
       </c>
       <c r="F16" t="n">
-        <v>141.39</v>
+        <v>141.04</v>
       </c>
       <c r="G16" t="n">
         <v>142.1</v>
       </c>
       <c r="H16" t="n">
-        <v>2.22</v>
+        <v>2.5</v>
       </c>
       <c r="I16" t="n">
-        <v>141.69</v>
+        <v>141.28</v>
       </c>
       <c r="J16" t="n">
         <v>144.9</v>
       </c>
       <c r="K16" t="n">
-        <v>4.53</v>
+        <v>4.75</v>
       </c>
       <c r="L16" t="n">
-        <v>141.45</v>
+        <v>141.12</v>
       </c>
       <c r="M16" t="n">
         <v>148.2</v>
@@ -1161,28 +1161,28 @@
         <v>10</v>
       </c>
       <c r="E17" t="n">
-        <v>-26.57</v>
+        <v>-0.82</v>
       </c>
       <c r="F17" t="n">
-        <v>219.35</v>
+        <v>174.72</v>
       </c>
       <c r="G17" t="n">
         <v>173.29</v>
       </c>
       <c r="H17" t="n">
-        <v>-50.07</v>
+        <v>1.48</v>
       </c>
       <c r="I17" t="n">
-        <v>267.14</v>
+        <v>175.37</v>
       </c>
       <c r="J17" t="n">
         <v>177.99</v>
       </c>
       <c r="K17" t="n">
-        <v>-19.64</v>
+        <v>10.36</v>
       </c>
       <c r="L17" t="n">
-        <v>213.1</v>
+        <v>159.67</v>
       </c>
       <c r="M17" t="n">
         <v>178.14</v>
@@ -1204,28 +1204,28 @@
         <v>2.5</v>
       </c>
       <c r="E18" t="n">
-        <v>0.72</v>
+        <v>1.83</v>
       </c>
       <c r="F18" t="n">
-        <v>117.57</v>
+        <v>116.26</v>
       </c>
       <c r="G18" t="n">
         <v>118.42</v>
       </c>
       <c r="H18" t="n">
-        <v>5.57</v>
+        <v>5.55</v>
       </c>
       <c r="I18" t="n">
-        <v>118.41</v>
+        <v>118.43</v>
       </c>
       <c r="J18" t="n">
         <v>125.39</v>
       </c>
       <c r="K18" t="n">
-        <v>9.02</v>
+        <v>9.85</v>
       </c>
       <c r="L18" t="n">
-        <v>114.84</v>
+        <v>113.79</v>
       </c>
       <c r="M18" t="n">
         <v>126.23</v>
@@ -1247,28 +1247,28 @@
         <v>2.5</v>
       </c>
       <c r="E19" t="n">
-        <v>0.84</v>
+        <v>0.71</v>
       </c>
       <c r="F19" t="n">
-        <v>133.51</v>
+        <v>133.67</v>
       </c>
       <c r="G19" t="n">
         <v>134.61</v>
       </c>
       <c r="H19" t="n">
-        <v>3.68</v>
+        <v>3.59</v>
       </c>
       <c r="I19" t="n">
-        <v>134.44</v>
+        <v>134.56</v>
       </c>
       <c r="J19" t="n">
         <v>139.55</v>
       </c>
       <c r="K19" t="n">
-        <v>4.36</v>
+        <v>5.18</v>
       </c>
       <c r="L19" t="n">
-        <v>134.17</v>
+        <v>133.01</v>
       </c>
       <c r="M19" t="n">
         <v>140.26</v>
@@ -1290,28 +1290,28 @@
         <v>10</v>
       </c>
       <c r="E20" t="n">
-        <v>2.08</v>
+        <v>2.07</v>
       </c>
       <c r="F20" t="n">
-        <v>106.51</v>
+        <v>106.52</v>
       </c>
       <c r="G20" t="n">
         <v>108.76</v>
       </c>
       <c r="H20" t="n">
-        <v>8.609999999999999</v>
+        <v>7.69</v>
       </c>
       <c r="I20" t="n">
-        <v>106.42</v>
+        <v>107.5</v>
       </c>
       <c r="J20" t="n">
         <v>116.45</v>
       </c>
       <c r="K20" t="n">
-        <v>7.94</v>
+        <v>10.29</v>
       </c>
       <c r="L20" t="n">
-        <v>107.52</v>
+        <v>104.78</v>
       </c>
       <c r="M20" t="n">
         <v>116.78</v>
@@ -1333,28 +1333,28 @@
         <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.13</v>
+        <v>1.32</v>
       </c>
       <c r="F21" t="n">
-        <v>112.11</v>
+        <v>110.48</v>
       </c>
       <c r="G21" t="n">
         <v>111.95</v>
       </c>
       <c r="H21" t="n">
-        <v>-1.43</v>
+        <v>7.55</v>
       </c>
       <c r="I21" t="n">
-        <v>122.27</v>
+        <v>111.44</v>
       </c>
       <c r="J21" t="n">
         <v>120.54</v>
       </c>
       <c r="K21" t="n">
-        <v>-1.97</v>
+        <v>8.99</v>
       </c>
       <c r="L21" t="n">
-        <v>122.76</v>
+        <v>109.57</v>
       </c>
       <c r="M21" t="n">
         <v>120.39</v>
@@ -1376,28 +1376,28 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0.88</v>
+        <v>1.25</v>
       </c>
       <c r="F22" t="n">
-        <v>476.51</v>
+        <v>474.7</v>
       </c>
       <c r="G22" t="n">
         <v>480.68</v>
       </c>
       <c r="H22" t="n">
-        <v>0.01</v>
+        <v>-0.01</v>
       </c>
       <c r="I22" t="n">
-        <v>476.28</v>
+        <v>476.35</v>
       </c>
       <c r="J22" t="n">
         <v>476.09</v>
       </c>
       <c r="K22" t="n">
-        <v>3.57</v>
+        <v>3.74</v>
       </c>
       <c r="L22" t="n">
-        <v>477.69</v>
+        <v>476.88</v>
       </c>
       <c r="M22" t="n">
         <v>495.17</v>
@@ -1419,28 +1419,28 @@
         <v>2.5</v>
       </c>
       <c r="E23" t="n">
-        <v>1.69</v>
+        <v>1.48</v>
       </c>
       <c r="F23" t="n">
-        <v>666.95</v>
+        <v>668.36</v>
       </c>
       <c r="G23" t="n">
         <v>678.4</v>
       </c>
       <c r="H23" t="n">
-        <v>0.03</v>
+        <v>0.18</v>
       </c>
       <c r="I23" t="n">
-        <v>668.71</v>
+        <v>667.71</v>
       </c>
       <c r="J23" t="n">
         <v>668.8</v>
       </c>
       <c r="K23" t="n">
-        <v>5.56</v>
+        <v>4.71</v>
       </c>
       <c r="L23" t="n">
-        <v>667.78</v>
+        <v>673.74</v>
       </c>
       <c r="M23" t="n">
         <v>707.2</v>
@@ -1462,28 +1462,28 @@
         <v>2.5</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9</v>
+        <v>1.03</v>
       </c>
       <c r="F24" t="n">
-        <v>397.69</v>
+        <v>397.16</v>
       </c>
       <c r="G24" t="n">
         <v>401.04</v>
       </c>
       <c r="H24" t="n">
-        <v>0.04</v>
+        <v>0.21</v>
       </c>
       <c r="I24" t="n">
-        <v>398.12</v>
+        <v>397.47</v>
       </c>
       <c r="J24" t="n">
         <v>398.12</v>
       </c>
       <c r="K24" t="n">
-        <v>4.73</v>
+        <v>5.12</v>
       </c>
       <c r="L24" t="n">
-        <v>398.15</v>
+        <v>396.52</v>
       </c>
       <c r="M24" t="n">
         <v>417.71</v>
@@ -1505,28 +1505,28 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.87</v>
+        <v>-0.85</v>
       </c>
       <c r="F25" t="n">
-        <v>251.35</v>
+        <v>251.31</v>
       </c>
       <c r="G25" t="n">
         <v>249.19</v>
       </c>
       <c r="H25" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="I25" t="n">
-        <v>251.31</v>
+        <v>251.39</v>
       </c>
       <c r="J25" t="n">
         <v>251.49</v>
       </c>
       <c r="K25" t="n">
-        <v>1.04</v>
+        <v>5.83</v>
       </c>
       <c r="L25" t="n">
-        <v>251.6</v>
+        <v>239.42</v>
       </c>
       <c r="M25" t="n">
         <v>254.23</v>
@@ -1548,28 +1548,28 @@
         <v>10</v>
       </c>
       <c r="E26" t="n">
-        <v>1.34</v>
+        <v>1.85</v>
       </c>
       <c r="F26" t="n">
-        <v>197.99</v>
+        <v>196.97</v>
       </c>
       <c r="G26" t="n">
         <v>200.7</v>
       </c>
       <c r="H26" t="n">
-        <v>1.34</v>
+        <v>1.82</v>
       </c>
       <c r="I26" t="n">
-        <v>198.87</v>
+        <v>197.9</v>
       </c>
       <c r="J26" t="n">
         <v>201.6</v>
       </c>
       <c r="K26" t="n">
-        <v>5.53</v>
+        <v>6.8</v>
       </c>
       <c r="L26" t="n">
-        <v>199.27</v>
+        <v>196.59</v>
       </c>
       <c r="M26" t="n">
         <v>210.9</v>
@@ -1591,28 +1591,28 @@
         <v>10</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.41</v>
+        <v>2.32</v>
       </c>
       <c r="F27" t="n">
-        <v>252.4</v>
+        <v>245.55</v>
       </c>
       <c r="G27" t="n">
         <v>251.35</v>
       </c>
       <c r="H27" t="n">
-        <v>0.52</v>
+        <v>0.7</v>
       </c>
       <c r="I27" t="n">
-        <v>253</v>
+        <v>252.53</v>
       </c>
       <c r="J27" t="n">
         <v>254.29</v>
       </c>
       <c r="K27" t="n">
-        <v>1.34</v>
+        <v>7.19</v>
       </c>
       <c r="L27" t="n">
-        <v>252.54</v>
+        <v>237.58</v>
       </c>
       <c r="M27" t="n">
         <v>255.99</v>
@@ -1634,28 +1634,28 @@
         <v>2.5</v>
       </c>
       <c r="E28" t="n">
-        <v>1.61</v>
+        <v>1.06</v>
       </c>
       <c r="F28" t="n">
-        <v>147.26</v>
+        <v>148.08</v>
       </c>
       <c r="G28" t="n">
         <v>149.66</v>
       </c>
       <c r="H28" t="n">
-        <v>6.36</v>
+        <v>4.7</v>
       </c>
       <c r="I28" t="n">
-        <v>146.8</v>
+        <v>149.41</v>
       </c>
       <c r="J28" t="n">
         <v>156.75</v>
       </c>
       <c r="K28" t="n">
-        <v>7.56</v>
+        <v>6.39</v>
       </c>
       <c r="L28" t="n">
-        <v>145.67</v>
+        <v>147.5</v>
       </c>
       <c r="M28" t="n">
         <v>157.55</v>
@@ -1677,28 +1677,28 @@
         <v>2.5</v>
       </c>
       <c r="E29" t="n">
-        <v>1.42</v>
+        <v>0.76</v>
       </c>
       <c r="F29" t="n">
-        <v>137.52</v>
+        <v>138.45</v>
       </c>
       <c r="G29" t="n">
         <v>139.49</v>
       </c>
       <c r="H29" t="n">
-        <v>5.76</v>
+        <v>6.13</v>
       </c>
       <c r="I29" t="n">
-        <v>139.64</v>
+        <v>139.09</v>
       </c>
       <c r="J29" t="n">
         <v>148.17</v>
       </c>
       <c r="K29" t="n">
-        <v>8.17</v>
+        <v>7.13</v>
       </c>
       <c r="L29" t="n">
-        <v>136.81</v>
+        <v>138.36</v>
       </c>
       <c r="M29" t="n">
         <v>148.97</v>
@@ -1720,28 +1720,28 @@
         <v>10</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.24</v>
+        <v>1.32</v>
       </c>
       <c r="F30" t="n">
-        <v>126.06</v>
+        <v>124.1</v>
       </c>
       <c r="G30" t="n">
         <v>125.77</v>
       </c>
       <c r="H30" t="n">
-        <v>8.550000000000001</v>
+        <v>6.94</v>
       </c>
       <c r="I30" t="n">
-        <v>122.25</v>
+        <v>124.4</v>
       </c>
       <c r="J30" t="n">
         <v>133.68</v>
       </c>
       <c r="K30" t="n">
-        <v>7.04</v>
+        <v>7.2</v>
       </c>
       <c r="L30" t="n">
-        <v>124.64</v>
+        <v>124.44</v>
       </c>
       <c r="M30" t="n">
         <v>134.08</v>
@@ -1763,28 +1763,28 @@
         <v>10</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.04</v>
+        <v>1.06</v>
       </c>
       <c r="F31" t="n">
-        <v>129.49</v>
+        <v>128.07</v>
       </c>
       <c r="G31" t="n">
         <v>129.43</v>
       </c>
       <c r="H31" t="n">
-        <v>6.79</v>
+        <v>6.52</v>
       </c>
       <c r="I31" t="n">
-        <v>128.59</v>
+        <v>128.96</v>
       </c>
       <c r="J31" t="n">
         <v>137.96</v>
       </c>
       <c r="K31" t="n">
-        <v>6.21</v>
+        <v>7.75</v>
       </c>
       <c r="L31" t="n">
-        <v>128.67</v>
+        <v>126.56</v>
       </c>
       <c r="M31" t="n">
         <v>137.2</v>
